--- a/05_Entregable 3/maate_extra/intermedios/DdV_19_MAATE_recopilacion_Retenciones_res.xlsx
+++ b/05_Entregable 3/maate_extra/intermedios/DdV_19_MAATE_recopilacion_Retenciones_res.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patricia.romo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MAG\personal\consultorías\wcs\05_Entregable 3\maate_extra\intermedios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD76189A-CD07-4988-A35E-AF92CF2081D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36600" yWindow="525" windowWidth="31185" windowHeight="16920" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36600" yWindow="525" windowWidth="31185" windowHeight="16920" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="causal_coid_coda_Recopilacion" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="reino_Recopilacion" sheetId="4" r:id="rId4"/>
     <sheet name="clase_Recopilacion" sheetId="5" r:id="rId5"/>
     <sheet name="nombre_cientifico_Recopilacion" sheetId="6" r:id="rId6"/>
-    <sheet name="estado_especimen_Recopilacion" sheetId="7" r:id="rId7"/>
+    <sheet name="elemento_retenido_Recopilacion" sheetId="7" r:id="rId7"/>
     <sheet name="etapa_de_vida_Recopilacion" sheetId="8" r:id="rId8"/>
     <sheet name="estado_fisico_Recopilacion" sheetId="9" r:id="rId9"/>
     <sheet name="unidad_Recopilacion" sheetId="10" r:id="rId10"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="511">
   <si>
     <t>causal_coid_coda</t>
   </si>
@@ -1195,9 +1194,6 @@
     <t>elemento_retenido</t>
   </si>
   <si>
-    <t>Categoria 2025</t>
-  </si>
-  <si>
     <t>Amphibia</t>
   </si>
   <si>
@@ -1543,9 +1539,6 @@
     <t>Penelope sp.</t>
   </si>
   <si>
-    <t>NOTA: En caso de no contar con información para UNIDAD, categorizaremos como "1"  para tener un dato mínimo, asumiendo que si se creó un registro, fue porque se encontró al menos 1 individuo</t>
-  </si>
-  <si>
     <t>Ambystoma</t>
   </si>
   <si>
@@ -1568,12 +1561,15 @@
   </si>
   <si>
     <t>No deternimado</t>
+  </si>
+  <si>
+    <t>Unidad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1922,20 +1918,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1949,7 +1945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1960,7 +1956,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1971,7 +1967,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1982,7 +1978,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1993,7 +1989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2004,7 +2000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2015,7 +2011,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2026,7 +2022,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2037,7 +2033,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2048,7 +2044,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -2059,7 +2055,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2070,7 +2066,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -2081,7 +2077,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -2092,7 +2088,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>76</v>
       </c>
@@ -2107,20 +2103,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:D14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.109375" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>340</v>
       </c>
@@ -2134,127 +2130,122 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>341</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C2" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>300</v>
       </c>
       <c r="B3">
         <v>9</v>
       </c>
-      <c r="C3" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C3" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>342</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C4" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>343</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>344</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C6" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>345</v>
       </c>
       <c r="B7">
         <v>24</v>
       </c>
-      <c r="C7" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C7" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>346</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C8" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>347</v>
       </c>
       <c r="B9">
         <v>25</v>
       </c>
-      <c r="C9" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C9" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>348</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C10" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>349</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C11" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>622</v>
       </c>
-      <c r="C12" s="2">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
-        <v>503</v>
+      <c r="C12" s="2" t="s">
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -2264,20 +2255,20 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>350</v>
       </c>
@@ -2291,7 +2282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>351</v>
       </c>
@@ -2302,7 +2293,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>352</v>
       </c>
@@ -2313,7 +2304,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>353</v>
       </c>
@@ -2324,7 +2315,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>354</v>
       </c>
@@ -2335,7 +2326,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>355</v>
       </c>
@@ -2346,7 +2337,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>356</v>
       </c>
@@ -2357,7 +2348,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>357</v>
       </c>
@@ -2368,7 +2359,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>358</v>
       </c>
@@ -2379,7 +2370,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>359</v>
       </c>
@@ -2390,7 +2381,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>360</v>
       </c>
@@ -2401,7 +2392,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>361</v>
       </c>
@@ -2412,7 +2403,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>362</v>
       </c>
@@ -2423,7 +2414,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>363</v>
       </c>
@@ -2434,7 +2425,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>364</v>
       </c>
@@ -2445,7 +2436,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>365</v>
       </c>
@@ -2456,7 +2447,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>366</v>
       </c>
@@ -2467,7 +2458,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>367</v>
       </c>
@@ -2478,7 +2469,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>368</v>
       </c>
@@ -2489,7 +2480,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>369</v>
       </c>
@@ -2500,7 +2491,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>130</v>
       </c>
@@ -2515,22 +2506,22 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>370</v>
       </c>
@@ -2544,7 +2535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>371</v>
       </c>
@@ -2555,7 +2546,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>372</v>
       </c>
@@ -2566,7 +2557,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>373</v>
       </c>
@@ -2577,7 +2568,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>374</v>
       </c>
@@ -2588,7 +2579,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>375</v>
       </c>
@@ -2599,7 +2590,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>376</v>
       </c>
@@ -2610,7 +2601,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>377</v>
       </c>
@@ -2621,7 +2612,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>378</v>
       </c>
@@ -2632,7 +2623,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>379</v>
       </c>
@@ -2643,7 +2634,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>380</v>
       </c>
@@ -2654,7 +2645,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>381</v>
       </c>
@@ -2665,7 +2656,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>382</v>
       </c>
@@ -2676,7 +2667,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>164</v>
       </c>
@@ -2691,20 +2682,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -2718,7 +2709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -2729,7 +2720,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -2740,7 +2731,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -2751,7 +2742,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -2762,7 +2753,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2773,7 +2764,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -2784,7 +2775,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -2795,7 +2786,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>584</v>
       </c>
@@ -2810,19 +2801,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -2836,7 +2827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -2847,7 +2838,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -2858,7 +2849,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -2869,7 +2860,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -2880,7 +2871,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -2891,7 +2882,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2899,13 +2890,13 @@
         <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D7" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -2916,7 +2907,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -2927,7 +2918,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -2938,7 +2929,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -2949,15 +2940,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>585</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D12" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -2967,19 +2958,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -2993,7 +2984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -3004,7 +2995,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -3015,7 +3006,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -3026,7 +3017,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -3037,7 +3028,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>5</v>
       </c>
@@ -3052,20 +3043,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -3073,13 +3064,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -3090,7 +3081,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -3101,7 +3092,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -3109,10 +3100,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -3120,10 +3111,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -3134,7 +3125,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -3145,7 +3136,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -3156,7 +3147,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -3164,10 +3155,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -3178,7 +3169,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -3186,10 +3177,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -3197,10 +3188,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -3208,10 +3199,10 @@
         <v>7</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -3219,10 +3210,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -3230,10 +3221,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -3241,10 +3232,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -3252,10 +3243,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -3263,10 +3254,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -3274,10 +3265,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -3285,10 +3276,10 @@
         <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -3296,10 +3287,10 @@
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -3307,10 +3298,10 @@
         <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -3318,10 +3309,10 @@
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>62</v>
       </c>
@@ -3329,10 +3320,10 @@
         <v>31</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>63</v>
       </c>
@@ -3340,10 +3331,10 @@
         <v>7</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -3351,10 +3342,10 @@
         <v>130</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -3362,10 +3353,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -3376,7 +3367,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>67</v>
       </c>
@@ -3387,7 +3378,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>68</v>
       </c>
@@ -3398,7 +3389,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -3409,7 +3400,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>70</v>
       </c>
@@ -3420,7 +3411,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -3431,7 +3422,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -3442,7 +3433,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>73</v>
       </c>
@@ -3453,7 +3444,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>14</v>
       </c>
@@ -3468,21 +3459,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E228"/>
   <sheetViews>
-    <sheetView topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="H230" sqref="H230"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.88671875" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -3490,16 +3481,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -3513,7 +3504,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -3527,7 +3518,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -3541,7 +3532,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -3555,7 +3546,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>79</v>
       </c>
@@ -3569,7 +3560,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -3583,7 +3574,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -3597,7 +3588,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -3611,7 +3602,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -3625,7 +3616,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -3639,7 +3630,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>85</v>
       </c>
@@ -3653,7 +3644,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>86</v>
       </c>
@@ -3667,7 +3658,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -3681,7 +3672,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>88</v>
       </c>
@@ -3695,7 +3686,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>89</v>
       </c>
@@ -3706,10 +3697,10 @@
         <v>89</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>90</v>
       </c>
@@ -3717,13 +3708,13 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>91</v>
       </c>
@@ -3734,10 +3725,10 @@
         <v>91</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>92</v>
       </c>
@@ -3748,10 +3739,10 @@
         <v>92</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>93</v>
       </c>
@@ -3765,10 +3756,10 @@
         <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>94</v>
       </c>
@@ -3779,10 +3770,10 @@
         <v>94</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -3793,10 +3784,10 @@
         <v>95</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>96</v>
       </c>
@@ -3807,10 +3798,10 @@
         <v>97</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>97</v>
       </c>
@@ -3821,10 +3812,10 @@
         <v>97</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>98</v>
       </c>
@@ -3835,10 +3826,10 @@
         <v>98</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>99</v>
       </c>
@@ -3846,16 +3837,16 @@
         <v>1</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E26" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>100</v>
       </c>
@@ -3866,10 +3857,10 @@
         <v>100</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>101</v>
       </c>
@@ -3880,10 +3871,10 @@
         <v>101</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>102</v>
       </c>
@@ -3897,7 +3888,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>103</v>
       </c>
@@ -3908,10 +3899,10 @@
         <v>103</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>104</v>
       </c>
@@ -3922,10 +3913,10 @@
         <v>104</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>105</v>
       </c>
@@ -3933,13 +3924,13 @@
         <v>1</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>106</v>
       </c>
@@ -3950,10 +3941,10 @@
         <v>108</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -3964,10 +3955,10 @@
         <v>107</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>108</v>
       </c>
@@ -3978,10 +3969,10 @@
         <v>108</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>109</v>
       </c>
@@ -3992,10 +3983,10 @@
         <v>109</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>110</v>
       </c>
@@ -4006,10 +3997,10 @@
         <v>110</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>111</v>
       </c>
@@ -4023,7 +4014,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>112</v>
       </c>
@@ -4034,10 +4025,10 @@
         <v>112</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>113</v>
       </c>
@@ -4048,10 +4039,10 @@
         <v>114</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>114</v>
       </c>
@@ -4062,10 +4053,10 @@
         <v>114</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>115</v>
       </c>
@@ -4076,10 +4067,10 @@
         <v>115</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>116</v>
       </c>
@@ -4090,10 +4081,10 @@
         <v>116</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>117</v>
       </c>
@@ -4104,10 +4095,10 @@
         <v>117</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>118</v>
       </c>
@@ -4118,10 +4109,10 @@
         <v>118</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>119</v>
       </c>
@@ -4132,10 +4123,10 @@
         <v>204</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>120</v>
       </c>
@@ -4146,10 +4137,10 @@
         <v>120</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>121</v>
       </c>
@@ -4160,10 +4151,10 @@
         <v>120</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>122</v>
       </c>
@@ -4174,10 +4165,10 @@
         <v>122</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>123</v>
       </c>
@@ -4188,10 +4179,10 @@
         <v>123</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>124</v>
       </c>
@@ -4202,13 +4193,13 @@
         <v>123</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E51" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>125</v>
       </c>
@@ -4219,10 +4210,10 @@
         <v>125</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>126</v>
       </c>
@@ -4233,10 +4224,10 @@
         <v>126</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>127</v>
       </c>
@@ -4247,10 +4238,10 @@
         <v>127</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>128</v>
       </c>
@@ -4261,10 +4252,10 @@
         <v>128</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>129</v>
       </c>
@@ -4275,10 +4266,10 @@
         <v>129</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>130</v>
       </c>
@@ -4289,10 +4280,10 @@
         <v>130</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>131</v>
       </c>
@@ -4303,10 +4294,10 @@
         <v>131</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>132</v>
       </c>
@@ -4317,10 +4308,10 @@
         <v>132</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>133</v>
       </c>
@@ -4331,10 +4322,10 @@
         <v>136</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>134</v>
       </c>
@@ -4345,10 +4336,10 @@
         <v>136</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>135</v>
       </c>
@@ -4359,10 +4350,10 @@
         <v>136</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>136</v>
       </c>
@@ -4373,10 +4364,10 @@
         <v>136</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>137</v>
       </c>
@@ -4384,13 +4375,13 @@
         <v>2</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>138</v>
       </c>
@@ -4404,7 +4395,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>139</v>
       </c>
@@ -4418,7 +4409,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>140</v>
       </c>
@@ -4426,13 +4417,13 @@
         <v>1</v>
       </c>
       <c r="C67" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>141</v>
       </c>
@@ -4443,10 +4434,10 @@
         <v>141</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>142</v>
       </c>
@@ -4460,7 +4451,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>143</v>
       </c>
@@ -4471,10 +4462,10 @@
         <v>143</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>144</v>
       </c>
@@ -4485,10 +4476,10 @@
         <v>152</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>145</v>
       </c>
@@ -4499,10 +4490,10 @@
         <v>145</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>146</v>
       </c>
@@ -4513,10 +4504,10 @@
         <v>146</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>147</v>
       </c>
@@ -4527,10 +4518,10 @@
         <v>103</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>148</v>
       </c>
@@ -4541,10 +4532,10 @@
         <v>103</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>149</v>
       </c>
@@ -4555,10 +4546,10 @@
         <v>103</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>150</v>
       </c>
@@ -4569,10 +4560,10 @@
         <v>150</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>151</v>
       </c>
@@ -4583,10 +4574,10 @@
         <v>152</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>152</v>
       </c>
@@ -4597,10 +4588,10 @@
         <v>152</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>153</v>
       </c>
@@ -4608,13 +4599,13 @@
         <v>1</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>154</v>
       </c>
@@ -4625,10 +4616,10 @@
         <v>152</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>155</v>
       </c>
@@ -4639,10 +4630,10 @@
         <v>157</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>156</v>
       </c>
@@ -4653,10 +4644,10 @@
         <v>156</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>157</v>
       </c>
@@ -4667,10 +4658,10 @@
         <v>157</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>158</v>
       </c>
@@ -4681,10 +4672,10 @@
         <v>158</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>159</v>
       </c>
@@ -4695,10 +4686,10 @@
         <v>158</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>160</v>
       </c>
@@ -4709,10 +4700,10 @@
         <v>160</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>161</v>
       </c>
@@ -4723,10 +4714,10 @@
         <v>161</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>162</v>
       </c>
@@ -4737,10 +4728,10 @@
         <v>163</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>163</v>
       </c>
@@ -4751,10 +4742,10 @@
         <v>163</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>164</v>
       </c>
@@ -4765,10 +4756,10 @@
         <v>164</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>165</v>
       </c>
@@ -4779,10 +4770,10 @@
         <v>161</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>166</v>
       </c>
@@ -4793,10 +4784,10 @@
         <v>166</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>167</v>
       </c>
@@ -4807,10 +4798,10 @@
         <v>167</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>168</v>
       </c>
@@ -4821,10 +4812,10 @@
         <v>168</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>169</v>
       </c>
@@ -4835,10 +4826,10 @@
         <v>169</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>170</v>
       </c>
@@ -4849,10 +4840,10 @@
         <v>170</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>171</v>
       </c>
@@ -4863,10 +4854,10 @@
         <v>171</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>172</v>
       </c>
@@ -4877,10 +4868,10 @@
         <v>172</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>173</v>
       </c>
@@ -4891,10 +4882,10 @@
         <v>173</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>174</v>
       </c>
@@ -4905,10 +4896,10 @@
         <v>174</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>175</v>
       </c>
@@ -4922,7 +4913,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>176</v>
       </c>
@@ -4936,7 +4927,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>177</v>
       </c>
@@ -4947,10 +4938,10 @@
         <v>177</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>178</v>
       </c>
@@ -4964,7 +4955,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>179</v>
       </c>
@@ -4975,10 +4966,10 @@
         <v>179</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>180</v>
       </c>
@@ -4989,10 +4980,10 @@
         <v>180</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>181</v>
       </c>
@@ -5003,10 +4994,10 @@
         <v>181</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>182</v>
       </c>
@@ -5017,10 +5008,10 @@
         <v>182</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>183</v>
       </c>
@@ -5031,10 +5022,10 @@
         <v>182</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>184</v>
       </c>
@@ -5045,10 +5036,10 @@
         <v>185</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>185</v>
       </c>
@@ -5059,10 +5050,10 @@
         <v>185</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>186</v>
       </c>
@@ -5070,16 +5061,16 @@
         <v>1</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E113" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>187</v>
       </c>
@@ -5090,10 +5081,10 @@
         <v>187</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>188</v>
       </c>
@@ -5104,10 +5095,10 @@
         <v>188</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>189</v>
       </c>
@@ -5118,10 +5109,10 @@
         <v>189</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>190</v>
       </c>
@@ -5132,10 +5123,10 @@
         <v>190</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>191</v>
       </c>
@@ -5146,10 +5137,10 @@
         <v>191</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>192</v>
       </c>
@@ -5160,10 +5151,10 @@
         <v>192</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>193</v>
       </c>
@@ -5174,10 +5165,10 @@
         <v>193</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>194</v>
       </c>
@@ -5188,10 +5179,10 @@
         <v>194</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>195</v>
       </c>
@@ -5202,10 +5193,10 @@
         <v>283</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>196</v>
       </c>
@@ -5216,10 +5207,10 @@
         <v>196</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>197</v>
       </c>
@@ -5233,7 +5224,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>198</v>
       </c>
@@ -5244,10 +5235,10 @@
         <v>198</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>199</v>
       </c>
@@ -5258,10 +5249,10 @@
         <v>199</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>200</v>
       </c>
@@ -5272,10 +5263,10 @@
         <v>200</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>201</v>
       </c>
@@ -5289,7 +5280,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>202</v>
       </c>
@@ -5300,10 +5291,10 @@
         <v>202</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>203</v>
       </c>
@@ -5314,10 +5305,10 @@
         <v>203</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>204</v>
       </c>
@@ -5328,10 +5319,10 @@
         <v>204</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>205</v>
       </c>
@@ -5342,10 +5333,10 @@
         <v>204</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>206</v>
       </c>
@@ -5359,7 +5350,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>207</v>
       </c>
@@ -5367,13 +5358,13 @@
         <v>1</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>208</v>
       </c>
@@ -5384,10 +5375,10 @@
         <v>208</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>209</v>
       </c>
@@ -5398,10 +5389,10 @@
         <v>209</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>210</v>
       </c>
@@ -5412,10 +5403,10 @@
         <v>210</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>211</v>
       </c>
@@ -5426,10 +5417,10 @@
         <v>211</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>212</v>
       </c>
@@ -5440,10 +5431,10 @@
         <v>212</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>213</v>
       </c>
@@ -5454,10 +5445,10 @@
         <v>214</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>214</v>
       </c>
@@ -5468,10 +5459,10 @@
         <v>214</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>215</v>
       </c>
@@ -5482,10 +5473,10 @@
         <v>215</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>216</v>
       </c>
@@ -5496,10 +5487,10 @@
         <v>216</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>217</v>
       </c>
@@ -5510,10 +5501,10 @@
         <v>204</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>218</v>
       </c>
@@ -5524,10 +5515,10 @@
         <v>161</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>219</v>
       </c>
@@ -5538,10 +5529,10 @@
         <v>161</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>220</v>
       </c>
@@ -5552,10 +5543,10 @@
         <v>220</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>221</v>
       </c>
@@ -5566,10 +5557,10 @@
         <v>221</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>222</v>
       </c>
@@ -5583,7 +5574,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>223</v>
       </c>
@@ -5597,7 +5588,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>224</v>
       </c>
@@ -5611,7 +5602,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>225</v>
       </c>
@@ -5625,7 +5616,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>226</v>
       </c>
@@ -5636,10 +5627,10 @@
         <v>226</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>227</v>
       </c>
@@ -5653,7 +5644,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>228</v>
       </c>
@@ -5667,7 +5658,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>229</v>
       </c>
@@ -5681,7 +5672,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>230</v>
       </c>
@@ -5695,7 +5686,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>231</v>
       </c>
@@ -5709,7 +5700,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>232</v>
       </c>
@@ -5723,7 +5714,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>233</v>
       </c>
@@ -5737,7 +5728,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>234</v>
       </c>
@@ -5751,7 +5742,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>235</v>
       </c>
@@ -5762,10 +5753,10 @@
         <v>235</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>236</v>
       </c>
@@ -5776,10 +5767,10 @@
         <v>236</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>237</v>
       </c>
@@ -5790,10 +5781,10 @@
         <v>237</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>238</v>
       </c>
@@ -5804,10 +5795,10 @@
         <v>238</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>239</v>
       </c>
@@ -5821,7 +5812,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>240</v>
       </c>
@@ -5835,7 +5826,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>241</v>
       </c>
@@ -5849,7 +5840,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>242</v>
       </c>
@@ -5863,7 +5854,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>243</v>
       </c>
@@ -5877,7 +5868,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>244</v>
       </c>
@@ -5891,7 +5882,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>245</v>
       </c>
@@ -5902,10 +5893,10 @@
         <v>245</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>246</v>
       </c>
@@ -5916,10 +5907,10 @@
         <v>246</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>247</v>
       </c>
@@ -5927,16 +5918,16 @@
         <v>1</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E174" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>248</v>
       </c>
@@ -5944,13 +5935,13 @@
         <v>1</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>249</v>
       </c>
@@ -5961,10 +5952,10 @@
         <v>249</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>250</v>
       </c>
@@ -5978,7 +5969,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>251</v>
       </c>
@@ -5992,7 +5983,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>252</v>
       </c>
@@ -6006,7 +5997,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>253</v>
       </c>
@@ -6020,7 +6011,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>254</v>
       </c>
@@ -6034,7 +6025,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>255</v>
       </c>
@@ -6045,10 +6036,10 @@
         <v>255</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>256</v>
       </c>
@@ -6056,13 +6047,13 @@
         <v>1</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>257</v>
       </c>
@@ -6070,13 +6061,13 @@
         <v>4</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>258</v>
       </c>
@@ -6087,10 +6078,10 @@
         <v>258</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>259</v>
       </c>
@@ -6101,10 +6092,10 @@
         <v>261</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>260</v>
       </c>
@@ -6115,10 +6106,10 @@
         <v>260</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>261</v>
       </c>
@@ -6129,10 +6120,10 @@
         <v>261</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>262</v>
       </c>
@@ -6143,10 +6134,10 @@
         <v>262</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>263</v>
       </c>
@@ -6160,7 +6151,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>264</v>
       </c>
@@ -6171,10 +6162,10 @@
         <v>264</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>265</v>
       </c>
@@ -6185,10 +6176,10 @@
         <v>265</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>266</v>
       </c>
@@ -6199,10 +6190,10 @@
         <v>266</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>267</v>
       </c>
@@ -6213,10 +6204,10 @@
         <v>267</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>268</v>
       </c>
@@ -6227,10 +6218,10 @@
         <v>269</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>269</v>
       </c>
@@ -6241,10 +6232,10 @@
         <v>269</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>270</v>
       </c>
@@ -6255,10 +6246,10 @@
         <v>272</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>271</v>
       </c>
@@ -6269,10 +6260,10 @@
         <v>272</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>272</v>
       </c>
@@ -6283,10 +6274,10 @@
         <v>272</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>273</v>
       </c>
@@ -6300,7 +6291,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>274</v>
       </c>
@@ -6314,7 +6305,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>275</v>
       </c>
@@ -6325,10 +6316,10 @@
         <v>275</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>276</v>
       </c>
@@ -6339,10 +6330,10 @@
         <v>278</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>277</v>
       </c>
@@ -6353,10 +6344,10 @@
         <v>277</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>278</v>
       </c>
@@ -6367,10 +6358,10 @@
         <v>278</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>279</v>
       </c>
@@ -6378,13 +6369,13 @@
         <v>4</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>280</v>
       </c>
@@ -6398,7 +6389,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>281</v>
       </c>
@@ -6412,7 +6403,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>282</v>
       </c>
@@ -6426,7 +6417,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>283</v>
       </c>
@@ -6437,10 +6428,10 @@
         <v>283</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>284</v>
       </c>
@@ -6451,10 +6442,10 @@
         <v>284</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>285</v>
       </c>
@@ -6465,10 +6456,10 @@
         <v>285</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>286</v>
       </c>
@@ -6479,10 +6470,10 @@
         <v>286</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>80</v>
       </c>
@@ -6496,7 +6487,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>287</v>
       </c>
@@ -6507,10 +6498,10 @@
         <v>103</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>288</v>
       </c>
@@ -6521,10 +6512,10 @@
         <v>104</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>289</v>
       </c>
@@ -6532,13 +6523,13 @@
         <v>1</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>290</v>
       </c>
@@ -6549,10 +6540,10 @@
         <v>152</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>291</v>
       </c>
@@ -6563,10 +6554,10 @@
         <v>156</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>292</v>
       </c>
@@ -6577,10 +6568,10 @@
         <v>161</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>293</v>
       </c>
@@ -6591,10 +6582,10 @@
         <v>185</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>294</v>
       </c>
@@ -6602,13 +6593,13 @@
         <v>1</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>295</v>
       </c>
@@ -6616,13 +6607,13 @@
         <v>1</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>296</v>
       </c>
@@ -6630,13 +6621,13 @@
         <v>2</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>297</v>
       </c>
@@ -6644,13 +6635,13 @@
         <v>1</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>298</v>
       </c>
@@ -6658,13 +6649,13 @@
         <v>1</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>299</v>
       </c>
@@ -6675,18 +6666,18 @@
         <v>283</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B228">
         <v>16</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -6696,22 +6687,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>386</v>
       </c>
@@ -6725,7 +6716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>300</v>
       </c>
@@ -6736,7 +6727,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>301</v>
       </c>
@@ -6747,7 +6738,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>302</v>
       </c>
@@ -6758,7 +6749,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>303</v>
       </c>
@@ -6769,7 +6760,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>304</v>
       </c>
@@ -6780,7 +6771,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>305</v>
       </c>
@@ -6791,7 +6782,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>306</v>
       </c>
@@ -6802,7 +6793,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>307</v>
       </c>
@@ -6813,7 +6804,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>308</v>
       </c>
@@ -6824,7 +6815,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>309</v>
       </c>
@@ -6835,7 +6826,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>310</v>
       </c>
@@ -6846,7 +6837,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>311</v>
       </c>
@@ -6857,7 +6848,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>312</v>
       </c>
@@ -6868,7 +6859,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>313</v>
       </c>
@@ -6879,7 +6870,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>314</v>
       </c>
@@ -6890,7 +6881,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>315</v>
       </c>
@@ -6901,7 +6892,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>316</v>
       </c>
@@ -6912,7 +6903,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>128</v>
       </c>
@@ -6927,22 +6918,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>317</v>
       </c>
@@ -6956,7 +6947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>318</v>
       </c>
@@ -6967,7 +6958,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>319</v>
       </c>
@@ -6978,7 +6969,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>320</v>
       </c>
@@ -6989,7 +6980,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>321</v>
       </c>
@@ -7000,7 +6991,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>322</v>
       </c>
@@ -7011,7 +7002,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>323</v>
       </c>
@@ -7019,10 +7010,10 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>324</v>
       </c>
@@ -7033,7 +7024,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>325</v>
       </c>
@@ -7044,7 +7035,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>326</v>
       </c>
@@ -7052,10 +7043,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>327</v>
       </c>
@@ -7066,7 +7057,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>328</v>
       </c>
@@ -7077,7 +7068,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>329</v>
       </c>
@@ -7088,12 +7079,12 @@
         <v>322</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>377</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
   </sheetData>
@@ -7103,22 +7094,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>330</v>
       </c>
@@ -7132,7 +7123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>331</v>
       </c>
@@ -7143,7 +7134,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>332</v>
       </c>
@@ -7154,7 +7145,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>333</v>
       </c>
@@ -7165,7 +7156,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -7176,7 +7167,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>334</v>
       </c>
@@ -7187,7 +7178,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>335</v>
       </c>
@@ -7198,7 +7189,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>336</v>
       </c>
@@ -7209,7 +7200,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>337</v>
       </c>
@@ -7220,7 +7211,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>338</v>
       </c>
@@ -7231,7 +7222,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>339</v>
       </c>
@@ -7242,7 +7233,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>427</v>
       </c>
